--- a/data/processed/state_overviews/arizona_overview.xlsx
+++ b/data/processed/state_overviews/arizona_overview.xlsx
@@ -389,8 +389,10 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2">
-        <v>1446</v>
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>1,446</t>
+        </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
@@ -420,7 +422,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F16"/>
+  <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -464,8 +466,10 @@
           <t>Apache County</t>
         </is>
       </c>
-      <c r="B2">
-        <v>12</v>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -494,8 +498,10 @@
           <t>Cochise County</t>
         </is>
       </c>
-      <c r="B3">
-        <v>26</v>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -524,8 +530,10 @@
           <t>Coconino County</t>
         </is>
       </c>
-      <c r="B4">
-        <v>64</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>64</t>
+        </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -554,8 +562,10 @@
           <t>Gila County</t>
         </is>
       </c>
-      <c r="B5">
-        <v>12</v>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -584,8 +594,10 @@
           <t>Graham County</t>
         </is>
       </c>
-      <c r="B6">
-        <v>10</v>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -614,8 +626,10 @@
           <t>La Paz County</t>
         </is>
       </c>
-      <c r="B7">
-        <v>4</v>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -644,8 +658,10 @@
           <t>Maricopa County</t>
         </is>
       </c>
-      <c r="B8">
-        <v>847</v>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>847</t>
+        </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -674,8 +690,10 @@
           <t>Mohave County</t>
         </is>
       </c>
-      <c r="B9">
-        <v>26</v>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -704,8 +722,10 @@
           <t>Navajo County</t>
         </is>
       </c>
-      <c r="B10">
-        <v>20</v>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -734,8 +754,10 @@
           <t>Pima County</t>
         </is>
       </c>
-      <c r="B11">
-        <v>267</v>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>267</t>
+        </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -764,8 +786,10 @@
           <t>Pinal County</t>
         </is>
       </c>
-      <c r="B12">
-        <v>35</v>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -794,8 +818,10 @@
           <t>Santa Cruz County</t>
         </is>
       </c>
-      <c r="B13">
-        <v>15</v>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -824,8 +850,10 @@
           <t>Yavapai County</t>
         </is>
       </c>
-      <c r="B14">
-        <v>83</v>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>83</t>
+        </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -854,8 +882,10 @@
           <t>Yuma County</t>
         </is>
       </c>
-      <c r="B15">
-        <v>25</v>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -884,27 +914,61 @@
           <t>Greenlee County</t>
         </is>
       </c>
-      <c r="B16">
-        <v>0</v>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>0.00%</t>
+        </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>$0</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0.00%</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>1,446</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>$3,710,995,891</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>8.70%</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>-12.71%</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>65.98%</t>
         </is>
       </c>
     </row>
@@ -959,8 +1023,10 @@
           <t>Congressional District 1</t>
         </is>
       </c>
-      <c r="B2">
-        <v>192</v>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>192</t>
+        </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -989,8 +1055,10 @@
           <t>Congressional District 2</t>
         </is>
       </c>
-      <c r="B3">
-        <v>202</v>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>202</t>
+        </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -1019,8 +1087,10 @@
           <t>Congressional District 3</t>
         </is>
       </c>
-      <c r="B4">
-        <v>284</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>284</t>
+        </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -1049,8 +1119,10 @@
           <t>Congressional District 4</t>
         </is>
       </c>
-      <c r="B5">
-        <v>170</v>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>170</t>
+        </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1079,8 +1151,10 @@
           <t>Congressional District 5</t>
         </is>
       </c>
-      <c r="B6">
-        <v>79</v>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>79</t>
+        </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1109,8 +1183,10 @@
           <t>Congressional District 6</t>
         </is>
       </c>
-      <c r="B7">
-        <v>145</v>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>145</t>
+        </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1139,8 +1215,10 @@
           <t>Congressional District 7</t>
         </is>
       </c>
-      <c r="B8">
-        <v>218</v>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>218</t>
+        </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1169,8 +1247,10 @@
           <t>Congressional District 8</t>
         </is>
       </c>
-      <c r="B9">
-        <v>92</v>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>92</t>
+        </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1199,8 +1279,10 @@
           <t>Congressional District 9</t>
         </is>
       </c>
-      <c r="B10">
-        <v>64</v>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>64</t>
+        </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1229,8 +1311,10 @@
           <t>Total</t>
         </is>
       </c>
-      <c r="B11">
-        <v>1446</v>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>1,446</t>
+        </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1304,8 +1388,10 @@
           <t>Between $100K and $499K</t>
         </is>
       </c>
-      <c r="B2">
-        <v>349</v>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>349</t>
+        </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -1334,8 +1420,10 @@
           <t>Between $1M and $4.99M</t>
         </is>
       </c>
-      <c r="B3">
-        <v>453</v>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>453</t>
+        </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -1364,8 +1452,10 @@
           <t>Between $500K and $999K</t>
         </is>
       </c>
-      <c r="B4">
-        <v>245</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>245</t>
+        </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -1394,8 +1484,10 @@
           <t>Between $5M and $9.99M</t>
         </is>
       </c>
-      <c r="B5">
-        <v>166</v>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>166</t>
+        </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1424,8 +1516,10 @@
           <t>Greater than $10M</t>
         </is>
       </c>
-      <c r="B6">
-        <v>191</v>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>191</t>
+        </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1454,8 +1548,10 @@
           <t>Less than $100K</t>
         </is>
       </c>
-      <c r="B7">
-        <v>42</v>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>42</t>
+        </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1484,8 +1580,10 @@
           <t>Total</t>
         </is>
       </c>
-      <c r="B8">
-        <v>1446</v>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>1,446</t>
+        </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1559,8 +1657,10 @@
           <t>Arts, Culture, and Humanities</t>
         </is>
       </c>
-      <c r="B2">
-        <v>124</v>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>124</t>
+        </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -1589,8 +1689,10 @@
           <t>Education (Excluding Universities)</t>
         </is>
       </c>
-      <c r="B3">
-        <v>352</v>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>352</t>
+        </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -1619,8 +1721,10 @@
           <t>Environment and Animals</t>
         </is>
       </c>
-      <c r="B4">
-        <v>62</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>62</t>
+        </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -1649,8 +1753,10 @@
           <t>Health (Excluding Hospitals)</t>
         </is>
       </c>
-      <c r="B5">
-        <v>123</v>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>123</t>
+        </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1679,8 +1785,10 @@
           <t>Hospitals</t>
         </is>
       </c>
-      <c r="B6">
-        <v>10</v>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1709,8 +1817,10 @@
           <t>Human Services</t>
         </is>
       </c>
-      <c r="B7">
-        <v>378</v>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>378</t>
+        </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1739,8 +1849,10 @@
           <t>International, Foreign Affairs</t>
         </is>
       </c>
-      <c r="B8">
-        <v>11</v>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1769,8 +1881,10 @@
           <t>Public, Societal Benefit</t>
         </is>
       </c>
-      <c r="B9">
-        <v>98</v>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1799,8 +1913,10 @@
           <t>Religion Related</t>
         </is>
       </c>
-      <c r="B10">
-        <v>33</v>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1829,8 +1945,10 @@
           <t>Unclassified</t>
         </is>
       </c>
-      <c r="B11">
-        <v>249</v>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>249</t>
+        </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1859,8 +1977,10 @@
           <t>Universities</t>
         </is>
       </c>
-      <c r="B12">
-        <v>6</v>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -1889,8 +2009,10 @@
           <t>Total</t>
         </is>
       </c>
-      <c r="B13">
-        <v>1446</v>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>1,446</t>
+        </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>

--- a/data/processed/state_overviews/arizona_overview.xlsx
+++ b/data/processed/state_overviews/arizona_overview.xlsx
@@ -364,27 +364,27 @@
     <row r="1" s="1" customFormat="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>No. of 990 Filers w/ Gov Grants</t>
+          <t>Number of 990 filers with government grants</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Total Gov Grants ($)</t>
+          <t>Total government grants ($)</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Operating Surplus (%)</t>
+          <t>Operating surplus with government grants (%)</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Operating Surplus w/o Gov Grants (%)</t>
+          <t>Operating surplus without government grants (%)</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Share of 990 Filers w/ Gov Grants at Risk</t>
+          <t>Share of 990 filers with government grants at risk</t>
         </is>
       </c>
     </row>
@@ -431,544 +431,544 @@
     <row r="1" s="1" customFormat="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>County</t>
+          <t>Geography</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>No. of 990 Filers w/ Gov Grants</t>
+          <t>Number of 990 filers with government grants</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Total Gov Grants ($)</t>
+          <t>Total government grants ($)</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Operating Surplus (%)</t>
+          <t>Operating surplus with government grants (%)</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Operating Surplus w/o Gov Grants (%)</t>
+          <t>Operating surplus without government grants (%)</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Share of 990 Filers w/ Gov Grants at Risk</t>
+          <t>Share of 990 filers with government grants at risk</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Apache County</t>
+          <t>United States</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>103,475</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>$18,172,896</t>
+          <t>$267,700,640,005</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>11.26%</t>
+          <t>9.05%</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>-21.44%</t>
+          <t>-12.83%</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>58.33%</t>
+          <t>67.35%</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Cochise County</t>
+          <t>Arizona</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>1,446</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>$44,552,254</t>
+          <t>$3,710,995,891</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>14.74%</t>
+          <t>8.70%</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>-0.36%</t>
+          <t>-12.71%</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>50.00%</t>
+          <t>65.98%</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Coconino County</t>
+          <t>Apache County</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>64</t>
+          <t>12</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>$113,828,497</t>
+          <t>$18,172,896</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>11.76%</t>
+          <t>11.26%</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>-12.58%</t>
+          <t>-21.44%</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>65.62%</t>
+          <t>58.33%</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Gila County</t>
+          <t>Cochise County</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>26</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>$8,907,691</t>
+          <t>$44,552,254</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>19.00%</t>
+          <t>14.74%</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>6.74%</t>
+          <t>-0.36%</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>41.67%</t>
+          <t>50.00%</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Graham County</t>
+          <t>Coconino County</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>64</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>$22,035,599</t>
+          <t>$113,828,497</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>8.36%</t>
+          <t>11.76%</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>-78.01%</t>
+          <t>-12.58%</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>90.00%</t>
+          <t>65.62%</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>La Paz County</t>
+          <t>Gila County</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>12</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>$1,385,422</t>
+          <t>$8,907,691</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>4.46%</t>
+          <t>19.00%</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>-61.05%</t>
+          <t>6.74%</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>75.00%</t>
+          <t>41.67%</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Maricopa County</t>
+          <t>Graham County</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>847</t>
+          <t>10</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>$2,462,139,658</t>
+          <t>$22,035,599</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>8.26%</t>
+          <t>8.36%</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>-10.59%</t>
+          <t>-78.01%</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>64.70%</t>
+          <t>90.00%</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Mohave County</t>
+          <t>La Paz County</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>$96,057,668</t>
+          <t>$1,385,422</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>9.92%</t>
+          <t>4.46%</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>-57.00%</t>
+          <t>-61.05%</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>84.62%</t>
+          <t>75.00%</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Navajo County</t>
+          <t>Maricopa County</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>847</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>$30,957,201</t>
+          <t>$2,462,139,658</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>8.03%</t>
+          <t>8.26%</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>-43.16%</t>
+          <t>-10.59%</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>80.00%</t>
+          <t>64.70%</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Pima County</t>
+          <t>Mohave County</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>267</t>
+          <t>26</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>$691,213,787</t>
+          <t>$96,057,668</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>8.22%</t>
+          <t>9.92%</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>-14.05%</t>
+          <t>-57.00%</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>65.17%</t>
+          <t>84.62%</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Pinal County</t>
+          <t>Navajo County</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>20</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>$75,131,903</t>
+          <t>$30,957,201</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>2.38%</t>
+          <t>8.03%</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>-52.16%</t>
+          <t>-43.16%</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>82.86%</t>
+          <t>80.00%</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Santa Cruz County</t>
+          <t>Pima County</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>267</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>$10,893,709</t>
+          <t>$691,213,787</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>16.79%</t>
+          <t>8.22%</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>-16.16%</t>
+          <t>-14.05%</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>53.33%</t>
+          <t>65.17%</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Yavapai County</t>
+          <t>Pinal County</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>83</t>
+          <t>35</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>$59,944,854</t>
+          <t>$75,131,903</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>9.87%</t>
+          <t>2.38%</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>-13.07%</t>
+          <t>-52.16%</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>69.88%</t>
+          <t>82.86%</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Yuma County</t>
+          <t>Santa Cruz County</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>15</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>$75,774,752</t>
+          <t>$10,893,709</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>8.94%</t>
+          <t>16.79%</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>-18.38%</t>
+          <t>-16.16%</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>80.00%</t>
+          <t>53.33%</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Greenlee County</t>
+          <t>Yavapai County</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>83</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>$0</t>
+          <t>$59,944,854</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>9.87%</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>-13.07%</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>69.88%</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>Yuma County</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>1,446</t>
+          <t>25</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>$3,710,995,891</t>
+          <t>$75,774,752</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>8.70%</t>
+          <t>8.94%</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>-12.71%</t>
+          <t>-18.38%</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>65.98%</t>
+          <t>80.00%</t>
         </is>
       </c>
     </row>
@@ -979,7 +979,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -988,352 +988,384 @@
     <row r="1" s="1" customFormat="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Congressional District</t>
+          <t>Geography</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>No. of 990 Filers w/ Gov Grants</t>
+          <t>Number of 990 filers with government grants</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Total Gov Grants ($)</t>
+          <t>Total government grants ($)</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Operating Surplus (%)</t>
+          <t>Operating surplus with government grants (%)</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Operating Surplus w/o Gov Grants (%)</t>
+          <t>Operating surplus without government grants (%)</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Share of 990 Filers w/ Gov Grants at Risk</t>
+          <t>Share of 990 filers with government grants at risk</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Congressional District 1</t>
+          <t>United States</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>192</t>
+          <t>103,475</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>$367,598,292</t>
+          <t>$267,700,640,005</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>11.34%</t>
+          <t>9.05%</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>-3.38%</t>
+          <t>-12.83%</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>55.73%</t>
+          <t>67.35%</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Congressional District 2</t>
+          <t>Arizona</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>202</t>
+          <t>1,446</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>$247,658,448</t>
+          <t>$3,710,995,891</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>9.95%</t>
+          <t>8.70%</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>-13.88%</t>
+          <t>-12.71%</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>68.32%</t>
+          <t>65.98%</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Congressional District 3</t>
+          <t>1st Congressional district</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>284</t>
+          <t>192</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>$1,184,821,727</t>
+          <t>$367,598,292</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>8.26%</t>
+          <t>11.34%</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>-16.54%</t>
+          <t>-3.38%</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>67.25%</t>
+          <t>55.73%</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Congressional District 4</t>
+          <t>2nd Congressional district</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>170</t>
+          <t>202</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>$300,344,976</t>
+          <t>$247,658,448</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>6.12%</t>
+          <t>9.95%</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>-7.14%</t>
+          <t>-13.88%</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>62.35%</t>
+          <t>68.32%</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Congressional District 5</t>
+          <t>3rd Congressional district</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>79</t>
+          <t>284</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>$411,790,180</t>
+          <t>$1,184,821,727</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>7.39%</t>
+          <t>8.26%</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>-26.40%</t>
+          <t>-16.54%</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>73.42%</t>
+          <t>67.25%</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Congressional District 6</t>
+          <t>4th Congressional district</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>145</t>
+          <t>170</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>$299,411,818</t>
+          <t>$300,344,976</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>9.95%</t>
+          <t>6.12%</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>-6.79%</t>
+          <t>-7.14%</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>57.93%</t>
+          <t>62.35%</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Congressional District 7</t>
+          <t>5th Congressional district</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>218</t>
+          <t>79</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>$593,666,918</t>
+          <t>$411,790,180</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>7.95%</t>
+          <t>7.39%</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>-19.50%</t>
+          <t>-26.40%</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>71.56%</t>
+          <t>73.42%</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Congressional District 8</t>
+          <t>6th Congressional district</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>92</t>
+          <t>145</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>$112,899,782</t>
+          <t>$299,411,818</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>8.67%</t>
+          <t>9.95%</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>-10.02%</t>
+          <t>-6.79%</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>68.48%</t>
+          <t>57.93%</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Congressional District 9</t>
+          <t>7th Congressional district</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>64</t>
+          <t>218</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>$192,803,750</t>
+          <t>$593,666,918</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>7.83%</t>
+          <t>7.95%</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>-36.07%</t>
+          <t>-19.50%</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>79.69%</t>
+          <t>71.56%</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>8th Congressional district</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>1,446</t>
+          <t>92</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>$3,710,995,891</t>
+          <t>$112,899,782</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>8.70%</t>
+          <t>8.67%</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>-12.71%</t>
+          <t>-10.02%</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>65.98%</t>
+          <t>68.48%</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>9th Congressional district</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>64</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>$192,803,750</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>7.83%</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>-36.07%</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>79.69%</t>
         </is>
       </c>
     </row>
@@ -1358,34 +1390,34 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>No. of 990 Filers w/ Gov Grants</t>
+          <t>Number of 990 filers with government grants</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Total Gov Grants ($)</t>
+          <t>Total government grants ($)</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Operating Surplus (%)</t>
+          <t>Operating surplus with government grants (%)</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Operating Surplus w/o Gov Grants (%)</t>
+          <t>Operating surplus without government grants (%)</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Share of 990 Filers w/ Gov Grants at Risk</t>
+          <t>Share of 990 filers with government grants at risk</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Between $100K and $499K</t>
+          <t>$100K to $499K</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -1417,128 +1449,128 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Between $1M and $4.99M</t>
+          <t>$10M or more</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>453</t>
+          <t>191</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>$516,702,499</t>
+          <t>$2,625,262,629</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>8.02%</t>
+          <t>6.10%</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>-16.68%</t>
+          <t>-17.07%</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>69.98%</t>
+          <t>71.73%</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Between $500K and $999K</t>
+          <t>$1M to $4.9M</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>245</t>
+          <t>453</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>$87,624,863</t>
+          <t>$516,702,499</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>9.19%</t>
+          <t>8.02%</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>-12.94%</t>
+          <t>-16.68%</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>66.94%</t>
+          <t>69.98%</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Between $5M and $9.99M</t>
+          <t>$500K to $999K</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>166</t>
+          <t>245</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>$441,070,166</t>
+          <t>$87,624,863</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>6.47%</t>
+          <t>9.19%</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>-13.90%</t>
+          <t>-12.94%</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>67.47%</t>
+          <t>66.94%</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Greater than $10M</t>
+          <t>$5M to $9.9M</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>191</t>
+          <t>166</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>$2,625,262,629</t>
+          <t>$441,070,166</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>6.10%</t>
+          <t>6.47%</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>-17.07%</t>
+          <t>-13.90%</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>71.73%</t>
+          <t>67.47%</t>
         </is>
       </c>
     </row>
@@ -1627,34 +1659,34 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>No. of 990 Filers w/ Gov Grants</t>
+          <t>Number of 990 filers with government grants</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Total Gov Grants ($)</t>
+          <t>Total government grants ($)</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Operating Surplus (%)</t>
+          <t>Operating surplus with government grants (%)</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Operating Surplus w/o Gov Grants (%)</t>
+          <t>Operating surplus without government grants (%)</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Share of 990 Filers w/ Gov Grants at Risk</t>
+          <t>Share of 990 filers with government grants at risk</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Arts, Culture, and Humanities</t>
+          <t>Arts, culture, and humanities</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -1686,7 +1718,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Education (Excluding Universities)</t>
+          <t>Education</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -1718,7 +1750,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Environment and Animals</t>
+          <t>Environment and animals</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -1750,7 +1782,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Health (Excluding Hospitals)</t>
+          <t>Health</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -1814,7 +1846,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Human Services</t>
+          <t>Human services</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -1846,7 +1878,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>International, Foreign Affairs</t>
+          <t>International, foreign affairs</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -1878,7 +1910,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Public, Societal Benefit</t>
+          <t>Public, societal benefit</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -1910,7 +1942,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Religion Related</t>
+          <t>Religion-related</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -1942,64 +1974,64 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Unclassified</t>
+          <t>Universities</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>249</t>
+          <t>6</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>$1,019,764,236</t>
+          <t>$43,584,065</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>7.05%</t>
+          <t>8.28%</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>-13.33%</t>
+          <t>-2.81%</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>69.48%</t>
+          <t>66.67%</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Universities</t>
+          <t>Unclassified</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>249</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>$43,584,065</t>
+          <t>$1,019,764,236</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>8.28%</t>
+          <t>7.05%</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>-2.81%</t>
+          <t>-13.33%</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>66.67%</t>
+          <t>69.48%</t>
         </is>
       </c>
     </row>

--- a/data/processed/state_overviews/arizona_overview.xlsx
+++ b/data/processed/state_overviews/arizona_overview.xlsx
@@ -364,54 +364,54 @@
     <row r="1" s="1" customFormat="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>Share of 990 filers with government grants at risk</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>Number of 990 filers with government grants</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>Total government grants ($)</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Operating surplus with government grants (%)</t>
-        </is>
-      </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Operating surplus without government grants (%)</t>
+          <t>Size of operating surplus with government grants</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Share of 990 filers with government grants at risk</t>
+          <t>Size of operating surplus without government grants</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>65.98%</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
           <t>1,446</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="C2" t="inlineStr">
         <is>
           <t>$3,710,995,891</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="D2" t="inlineStr">
         <is>
           <t>8.70%</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>-12.71%</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>65.98%</t>
         </is>
       </c>
     </row>
@@ -436,27 +436,27 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>Share of 990 filers with government grants at risk</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>Number of 990 filers with government grants</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>Total government grants ($)</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Operating surplus with government grants (%)</t>
-        </is>
-      </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Operating surplus without government grants (%)</t>
+          <t>Size of operating surplus with government grants</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Share of 990 filers with government grants at risk</t>
+          <t>Size of operating surplus without government grants</t>
         </is>
       </c>
     </row>
@@ -468,27 +468,27 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>67.35%</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
           <t>103,475</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="D2" t="inlineStr">
         <is>
           <t>$267,700,640,005</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>9.05%</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>-12.83%</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>67.35%</t>
         </is>
       </c>
     </row>
@@ -500,27 +500,27 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>65.98%</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
           <t>1,446</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="D3" t="inlineStr">
         <is>
           <t>$3,710,995,891</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>8.70%</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>-12.71%</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>65.98%</t>
         </is>
       </c>
     </row>
@@ -532,27 +532,27 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>58.33%</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
           <t>12</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="D4" t="inlineStr">
         <is>
           <t>$18,172,896</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="E4" t="inlineStr">
         <is>
           <t>11.26%</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>-21.44%</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>58.33%</t>
         </is>
       </c>
     </row>
@@ -564,27 +564,27 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>50.00%</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
           <t>26</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="D5" t="inlineStr">
         <is>
           <t>$44,552,254</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>14.74%</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>-0.36%</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>50.00%</t>
         </is>
       </c>
     </row>
@@ -596,27 +596,27 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>65.62%</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
           <t>64</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>$113,828,497</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>11.76%</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>-12.58%</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>65.62%</t>
         </is>
       </c>
     </row>
@@ -628,27 +628,27 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>41.67%</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
           <t>12</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>$8,907,691</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>19.00%</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>6.74%</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>41.67%</t>
         </is>
       </c>
     </row>
@@ -660,27 +660,27 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>90.00%</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
           <t>10</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>$22,035,599</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>8.36%</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>-78.01%</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>90.00%</t>
         </is>
       </c>
     </row>
@@ -692,27 +692,27 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>75.00%</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
           <t>4</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="D9" t="inlineStr">
         <is>
           <t>$1,385,422</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>4.46%</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
+      <c r="F9" t="inlineStr">
         <is>
           <t>-61.05%</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>75.00%</t>
         </is>
       </c>
     </row>
@@ -724,27 +724,27 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
+          <t>64.70%</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
           <t>847</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="D10" t="inlineStr">
         <is>
           <t>$2,462,139,658</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
+      <c r="E10" t="inlineStr">
         <is>
           <t>8.26%</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
+      <c r="F10" t="inlineStr">
         <is>
           <t>-10.59%</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>64.70%</t>
         </is>
       </c>
     </row>
@@ -756,27 +756,27 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
+          <t>84.62%</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
           <t>26</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
+      <c r="D11" t="inlineStr">
         <is>
           <t>$96,057,668</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
+      <c r="E11" t="inlineStr">
         <is>
           <t>9.92%</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
+      <c r="F11" t="inlineStr">
         <is>
           <t>-57.00%</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>84.62%</t>
         </is>
       </c>
     </row>
@@ -788,27 +788,27 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
+          <t>80.00%</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
           <t>20</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
+      <c r="D12" t="inlineStr">
         <is>
           <t>$30,957,201</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
+      <c r="E12" t="inlineStr">
         <is>
           <t>8.03%</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
+      <c r="F12" t="inlineStr">
         <is>
           <t>-43.16%</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>80.00%</t>
         </is>
       </c>
     </row>
@@ -820,27 +820,27 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
+          <t>65.17%</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
           <t>267</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
+      <c r="D13" t="inlineStr">
         <is>
           <t>$691,213,787</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr">
+      <c r="E13" t="inlineStr">
         <is>
           <t>8.22%</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
+      <c r="F13" t="inlineStr">
         <is>
           <t>-14.05%</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>65.17%</t>
         </is>
       </c>
     </row>
@@ -852,27 +852,27 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
+          <t>82.86%</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
           <t>35</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
+      <c r="D14" t="inlineStr">
         <is>
           <t>$75,131,903</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr">
+      <c r="E14" t="inlineStr">
         <is>
           <t>2.38%</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr">
+      <c r="F14" t="inlineStr">
         <is>
           <t>-52.16%</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>82.86%</t>
         </is>
       </c>
     </row>
@@ -884,27 +884,27 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
+          <t>53.33%</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
           <t>15</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr">
+      <c r="D15" t="inlineStr">
         <is>
           <t>$10,893,709</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr">
+      <c r="E15" t="inlineStr">
         <is>
           <t>16.79%</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr">
+      <c r="F15" t="inlineStr">
         <is>
           <t>-16.16%</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>53.33%</t>
         </is>
       </c>
     </row>
@@ -916,27 +916,27 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
+          <t>69.88%</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
           <t>83</t>
         </is>
       </c>
-      <c r="C16" t="inlineStr">
+      <c r="D16" t="inlineStr">
         <is>
           <t>$59,944,854</t>
         </is>
       </c>
-      <c r="D16" t="inlineStr">
+      <c r="E16" t="inlineStr">
         <is>
           <t>9.87%</t>
         </is>
       </c>
-      <c r="E16" t="inlineStr">
+      <c r="F16" t="inlineStr">
         <is>
           <t>-13.07%</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>69.88%</t>
         </is>
       </c>
     </row>
@@ -948,27 +948,27 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
+          <t>80.00%</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
           <t>25</t>
         </is>
       </c>
-      <c r="C17" t="inlineStr">
+      <c r="D17" t="inlineStr">
         <is>
           <t>$75,774,752</t>
         </is>
       </c>
-      <c r="D17" t="inlineStr">
+      <c r="E17" t="inlineStr">
         <is>
           <t>8.94%</t>
         </is>
       </c>
-      <c r="E17" t="inlineStr">
+      <c r="F17" t="inlineStr">
         <is>
           <t>-18.38%</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>80.00%</t>
         </is>
       </c>
     </row>
@@ -993,27 +993,27 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>Share of 990 filers with government grants at risk</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>Number of 990 filers with government grants</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>Total government grants ($)</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Operating surplus with government grants (%)</t>
-        </is>
-      </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Operating surplus without government grants (%)</t>
+          <t>Size of operating surplus with government grants</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Share of 990 filers with government grants at risk</t>
+          <t>Size of operating surplus without government grants</t>
         </is>
       </c>
     </row>
@@ -1025,27 +1025,27 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>67.35%</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
           <t>103,475</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="D2" t="inlineStr">
         <is>
           <t>$267,700,640,005</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>9.05%</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>-12.83%</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>67.35%</t>
         </is>
       </c>
     </row>
@@ -1057,315 +1057,315 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>65.98%</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
           <t>1,446</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="D3" t="inlineStr">
         <is>
           <t>$3,710,995,891</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>8.70%</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>-12.71%</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>65.98%</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>1st Congressional district</t>
+          <t>Congressional District 1</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>55.73%</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
           <t>192</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="D4" t="inlineStr">
         <is>
           <t>$367,598,292</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="E4" t="inlineStr">
         <is>
           <t>11.34%</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>-3.38%</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>55.73%</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2nd Congressional district</t>
+          <t>Congressional District 2</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>68.32%</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
           <t>202</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="D5" t="inlineStr">
         <is>
           <t>$247,658,448</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>9.95%</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>-13.88%</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>68.32%</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>3rd Congressional district</t>
+          <t>Congressional District 3</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>67.25%</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
           <t>284</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>$1,184,821,727</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>8.26%</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>-16.54%</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>67.25%</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>4th Congressional district</t>
+          <t>Congressional District 4</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>62.35%</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
           <t>170</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>$300,344,976</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>6.12%</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>-7.14%</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>62.35%</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>5th Congressional district</t>
+          <t>Congressional District 5</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>73.42%</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
           <t>79</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>$411,790,180</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>7.39%</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>-26.40%</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>73.42%</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>6th Congressional district</t>
+          <t>Congressional District 6</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>57.93%</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
           <t>145</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="D9" t="inlineStr">
         <is>
           <t>$299,411,818</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>9.95%</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
+      <c r="F9" t="inlineStr">
         <is>
           <t>-6.79%</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>57.93%</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>7th Congressional district</t>
+          <t>Congressional District 7</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
+          <t>71.56%</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
           <t>218</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="D10" t="inlineStr">
         <is>
           <t>$593,666,918</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
+      <c r="E10" t="inlineStr">
         <is>
           <t>7.95%</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
+      <c r="F10" t="inlineStr">
         <is>
           <t>-19.50%</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>71.56%</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>8th Congressional district</t>
+          <t>Congressional District 8</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
+          <t>68.48%</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
           <t>92</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
+      <c r="D11" t="inlineStr">
         <is>
           <t>$112,899,782</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
+      <c r="E11" t="inlineStr">
         <is>
           <t>8.67%</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
+      <c r="F11" t="inlineStr">
         <is>
           <t>-10.02%</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>68.48%</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>9th Congressional district</t>
+          <t>Congressional District 9</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
+          <t>79.69%</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
           <t>64</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
+      <c r="D12" t="inlineStr">
         <is>
           <t>$192,803,750</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
+      <c r="E12" t="inlineStr">
         <is>
           <t>7.83%</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
+      <c r="F12" t="inlineStr">
         <is>
           <t>-36.07%</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>79.69%</t>
         </is>
       </c>
     </row>
@@ -1390,187 +1390,187 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>Share of 990 filers with government grants at risk</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>Number of 990 filers with government grants</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>Total government grants ($)</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Operating surplus with government grants (%)</t>
-        </is>
-      </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Operating surplus without government grants (%)</t>
+          <t>Size of operating surplus with government grants</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Share of 990 filers with government grants at risk</t>
+          <t>Size of operating surplus without government grants</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>$100K to $499K</t>
+          <t>Between $100K and $499K</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>60.17%</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
           <t>349</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="D2" t="inlineStr">
         <is>
           <t>$35,690,085</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>12.49%</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>-7.30%</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>60.17%</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>$10M or more</t>
+          <t>Between $1M and $4.99M</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>191</t>
+          <t>69.98%</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>$2,625,262,629</t>
+          <t>453</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>6.10%</t>
+          <t>$516,702,499</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>-17.07%</t>
+          <t>8.02%</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>71.73%</t>
+          <t>-16.68%</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>$1M to $4.9M</t>
+          <t>Between $500K and $999K</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>453</t>
+          <t>66.94%</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>$516,702,499</t>
+          <t>245</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>8.02%</t>
+          <t>$87,624,863</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>-16.68%</t>
+          <t>9.19%</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>69.98%</t>
+          <t>-12.94%</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>$500K to $999K</t>
+          <t>Between $5M and $9.99M</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>245</t>
+          <t>67.47%</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>$87,624,863</t>
+          <t>166</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>9.19%</t>
+          <t>$441,070,166</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>-12.94%</t>
+          <t>6.47%</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>66.94%</t>
+          <t>-13.90%</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>$5M to $9.9M</t>
+          <t>Greater than $10M</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>166</t>
+          <t>71.73%</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>$441,070,166</t>
+          <t>191</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>6.47%</t>
+          <t>$2,625,262,629</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>-13.90%</t>
+          <t>6.10%</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>67.47%</t>
+          <t>-17.07%</t>
         </is>
       </c>
     </row>
@@ -1582,27 +1582,27 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>33.33%</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
           <t>42</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>$4,645,649</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>40.96%</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>9.99%</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>33.33%</t>
         </is>
       </c>
     </row>
@@ -1614,27 +1614,27 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>65.98%</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
           <t>1,446</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>$3,710,995,891</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>8.70%</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>-12.71%</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>65.98%</t>
         </is>
       </c>
     </row>
@@ -1659,155 +1659,155 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>Share of 990 filers with government grants at risk</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>Number of 990 filers with government grants</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>Total government grants ($)</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Operating surplus with government grants (%)</t>
-        </is>
-      </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Operating surplus without government grants (%)</t>
+          <t>Size of operating surplus with government grants</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Share of 990 filers with government grants at risk</t>
+          <t>Size of operating surplus without government grants</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Arts, culture, and humanities</t>
+          <t>Arts, Culture, and Humanities</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>51.61%</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
           <t>124</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="D2" t="inlineStr">
         <is>
           <t>$115,651,340</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>20.04%</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>-1.25%</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>51.61%</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Education</t>
+          <t>Education (Excluding Universities)</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>80.97%</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
           <t>352</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="D3" t="inlineStr">
         <is>
           <t>$1,288,674,289</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>6.18%</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>-37.77%</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>80.97%</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Environment and animals</t>
+          <t>Environment and Animals</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>51.61%</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
           <t>62</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="D4" t="inlineStr">
         <is>
           <t>$82,183,594</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="E4" t="inlineStr">
         <is>
           <t>14.73%</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>-0.96%</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>51.61%</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Health</t>
+          <t>Health (Excluding Hospitals)</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>59.35%</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
           <t>123</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="D5" t="inlineStr">
         <is>
           <t>$326,103,399</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>8.77%</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>-5.13%</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>59.35%</t>
         </is>
       </c>
     </row>
@@ -1819,219 +1819,219 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>40.00%</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
           <t>10</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>$159,682,065</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>13.39%</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>4.55%</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>40.00%</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Human services</t>
+          <t>Human Services</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>61.38%</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
           <t>378</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>$456,491,023</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>10.25%</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>-10.09%</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>61.38%</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>International, foreign affairs</t>
+          <t>International, Foreign Affairs</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>54.55%</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
           <t>11</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>$85,308,531</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>9.51%</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>-0.70%</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>54.55%</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Public, societal benefit</t>
+          <t>Public, Societal Benefit</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>59.18%</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
           <t>98</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="D9" t="inlineStr">
         <is>
           <t>$106,290,253</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>10.75%</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
+      <c r="F9" t="inlineStr">
         <is>
           <t>-9.24%</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>59.18%</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Religion-related</t>
+          <t>Religion Related</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
+          <t>69.70%</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
           <t>33</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="D10" t="inlineStr">
         <is>
           <t>$27,263,096</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
+      <c r="E10" t="inlineStr">
         <is>
           <t>12.54%</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
+      <c r="F10" t="inlineStr">
         <is>
           <t>-4.14%</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>69.70%</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Universities</t>
+          <t>Unclassified</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>69.48%</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>$43,584,065</t>
+          <t>249</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>8.28%</t>
+          <t>$1,019,764,236</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>-2.81%</t>
+          <t>7.05%</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>66.67%</t>
+          <t>-13.33%</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Unclassified</t>
+          <t>Universities</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>249</t>
+          <t>66.67%</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>$1,019,764,236</t>
+          <t>6</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>7.05%</t>
+          <t>$43,584,065</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>-13.33%</t>
+          <t>8.28%</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>69.48%</t>
+          <t>-2.81%</t>
         </is>
       </c>
     </row>
@@ -2043,27 +2043,27 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
+          <t>65.98%</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
           <t>1,446</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
+      <c r="D13" t="inlineStr">
         <is>
           <t>$3,710,995,891</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr">
+      <c r="E13" t="inlineStr">
         <is>
           <t>8.70%</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
+      <c r="F13" t="inlineStr">
         <is>
           <t>-12.71%</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>65.98%</t>
         </is>
       </c>
     </row>
